--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\Lock-Bound---The-Web-Based-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4918AD-23BD-4EE6-BE56-3BCA506D1B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1631453-256E-44BC-BADA-18FD215E8484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -635,64 +635,112 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J13" si="0">SUM(C3:H3)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="6">
+        <v>45712</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99600000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="6">
+        <v>45719</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99600000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B6" s="6">
+        <v>45726</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.2</v>
+      </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45733</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -804,31 +852,31 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.183</v>
+        <v>0.17960000000000004</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:J15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.183</v>
+        <v>0.17960000000000004</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.183</v>
+        <v>0.17960000000000004</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.183</v>
+        <v>0.17960000000000004</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.158</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.158</v>
+        <v>0.17960000000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>0.17466666666666666</v>
+        <v>0.41566666666666663</v>
       </c>
     </row>
   </sheetData>
